--- a/01_Organisation/05_Bestellungen/Budget.xlsx
+++ b/01_Organisation/05_Bestellungen/Budget.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA18687-01A9-4DD4-AA13-2C35A0E20AE5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5740B6-8B6C-48C7-9162-63D3E6256DCA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Budget</t>
   </si>
@@ -100,7 +100,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;SFr.&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;SFr.&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -190,11 +190,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,11 +634,11 @@
         <v>13</v>
       </c>
       <c r="E8" s="2">
-        <v>12.45</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F9" si="0">E8+C8</f>
-        <v>15.6</v>
+        <v>3.15</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -671,8 +671,8 @@
       <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
+      <c r="E10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -681,7 +681,7 @@
       </c>
       <c r="I11" s="6">
         <f>SUM(F4:F9)</f>
-        <v>302.76</v>
+        <v>290.31</v>
       </c>
     </row>
   </sheetData>

--- a/01_Organisation/05_Bestellungen/Budget.xlsx
+++ b/01_Organisation/05_Bestellungen/Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5740B6-8B6C-48C7-9162-63D3E6256DCA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311EEC9D-7A95-4CC0-A23A-769409731EA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Roboter" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>18</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="F4" s="5">
         <f>E4+C4</f>
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -681,7 +681,7 @@
       </c>
       <c r="I11" s="6">
         <f>SUM(F4:F9)</f>
-        <v>290.31</v>
+        <v>319.30999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/01_Organisation/05_Bestellungen/Budget.xlsx
+++ b/01_Organisation/05_Bestellungen/Budget.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311EEC9D-7A95-4CC0-A23A-769409731EA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9FB59A-1231-4E85-8C59-B94CF94C2324}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Budget</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Lieferant</t>
   </si>
   <si>
-    <t>mouser</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
@@ -91,16 +88,47 @@
     <t>Platinen 2x</t>
   </si>
   <si>
-    <t>ntb?</t>
+    <t>Nachbestellung</t>
+  </si>
+  <si>
+    <t>maedler.ch</t>
+  </si>
+  <si>
+    <t>distrerelec.ch</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>mouser etc.</t>
+  </si>
+  <si>
+    <t>ntb</t>
+  </si>
+  <si>
+    <t>Materialkosten</t>
+  </si>
+  <si>
+    <t>WerkstattNTB</t>
+  </si>
+  <si>
+    <t>Antrieb</t>
+  </si>
+  <si>
+    <t>Annahme</t>
+  </si>
+  <si>
+    <t>sponsor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;SFr.&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="_ &quot;SFr.&quot;\ * #,##0.00_ ;_ &quot;SFr.&quot;\ * \-#,##0.00_ ;_ &quot;SFr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -111,20 +139,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,25 +210,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -209,8 +238,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,42 +530,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14">
+        <f>SUM(F4:F17)</f>
+        <v>714.45999999999992</v>
+      </c>
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10" t="s">
-        <v>20</v>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -554,35 +600,35 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>70</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f>E4+C4</f>
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
         <v>170</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
-        <f>C5+E5</f>
+      <c r="F5" s="3">
+        <f>C5</f>
         <v>170</v>
       </c>
     </row>
@@ -593,14 +639,16 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8">
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -608,16 +656,16 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>9.9499999999999993</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>8.9499999999999993</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <f>E7+C7</f>
         <v>18.899999999999999</v>
       </c>
@@ -627,35 +675,35 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>3.15</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <f t="shared" ref="F8:F9" si="0">E8+C8</f>
         <v>3.15</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>37.26</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>37.26</v>
       </c>
@@ -663,30 +711,133 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f>C10</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="9"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3">
+        <f>8.5+5</f>
+        <v>13.5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>17.95</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
+      <c r="F14" s="3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="9"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="6">
-        <f>SUM(F4:F9)</f>
-        <v>319.30999999999995</v>
-      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
